--- a/tests/ahdab/viewWeeklyReport.xlsx
+++ b/tests/ahdab/viewWeeklyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labRep\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labRep\tests\ahdab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -68,15 +68,9 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Managers that have account in the System</t>
-  </si>
-  <si>
     <t>1.login of the doctor</t>
   </si>
   <si>
-    <t>Manager ID</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -86,41 +80,16 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes- the Manager exist in the DB
-No- The Manager not Exist in the DB</t>
-  </si>
-  <si>
     <t>SuccessfulPresentation</t>
   </si>
   <si>
     <t>System shows weekly report</t>
   </si>
   <si>
-    <t>IncorrectID</t>
-  </si>
-  <si>
-    <t>System throws "illegible ID" Error message</t>
-  </si>
-  <si>
-    <t>ID is 9 digits</t>
-  </si>
-  <si>
     <t>IncorrectDateDomin</t>
   </si>
   <si>
-    <t>open "Reports Page"
-Type Manager's ID: "258698425"
-Enter The Dates: "1/3/2016-7/3/2016"
-press "view weekly Report" a</t>
-  </si>
-  <si>
     <t>weeks show 7 days</t>
-  </si>
-  <si>
-    <t>open "Reports Page"
-Type Manager's ID: "789456123"
-Enter The Dates "1/3/2016-7/3/2016"
-press "view weekly Report"</t>
   </si>
   <si>
     <t>System throws "Pressed wrong date domain" Error message</t>
@@ -136,33 +105,54 @@
 </t>
   </si>
   <si>
-    <t>MissingManagerID</t>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Yes- the report exist in the DB
+No- The report not Exist in the DB</t>
+  </si>
+  <si>
+    <t>Reports in the system</t>
+  </si>
+  <si>
+    <t>1/3/2016-7/3/2016</t>
+  </si>
+  <si>
+    <t>1/3/2016-21/3/2016</t>
   </si>
   <si>
     <t xml:space="preserve">open "Reports Page"
-Type Manager's ID : ""
-Enter The Dates "1/3/2016-21/3/2016"
+Enter The Dates: "1/3/2016-7/3/2016"
+press "view weekly Report" </t>
+  </si>
+  <si>
+    <t>MissingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open "Reports Page"
+Enter The Dates ""
 Press "view weekly Report"
 </t>
   </si>
   <si>
-    <t>System throws "Enter ID" message</t>
-  </si>
-  <si>
-    <t>ManagerNotFound</t>
+    <t>System throws "Enter Date" message</t>
+  </si>
+  <si>
+    <t>ReportNotFound</t>
+  </si>
+  <si>
+    <t>1/4/2016 - 7/4/2016</t>
   </si>
   <si>
     <t>open "Reports Page"
-Type Manager's ID: "7894561"
-Enter The Dates "1/3/2016-7/3/2016"
+Enter The Dates "1/4/2016-7/4/2016"
 press "view weekly Report"</t>
   </si>
   <si>
-    <t>System throws "incorrect ID" message</t>
-  </si>
-  <si>
-    <t>failed to aprove
- manager's ID</t>
+    <t>System throws "Report Not found" message</t>
+  </si>
+  <si>
+    <t>Report Not Created Yet</t>
   </si>
 </sst>
 </file>
@@ -525,6 +515,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,13 +815,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
@@ -839,10 +829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -870,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -882,57 +872,61 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>258698425</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>789456123</v>
+      <c r="A10" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="18.75">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
@@ -948,71 +942,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60">
-      <c r="A17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="75">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60">
+      <c r="A19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75">
-      <c r="A19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="19" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="45">
+      <c r="A20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60">
-      <c r="A20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
